--- a/biology/Botanique/Teint_frais_(pomme)/Teint_frais_(pomme).xlsx
+++ b/biology/Botanique/Teint_frais_(pomme)/Teint_frais_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pomme Teint Frais est une variété ancienne de pomme de table répandue en Bretagne, et connue depuis le 18e siècle dans les environs de Quimperlé[1] grâce à une Demoiselle de Kerlivio qui en aurait assuré sa large diffusion dans les environs. Cette pomme était d'ailleurs également appelée "Demoiselle de Kerlivio" ou "pomme Kerlivio".
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pomme Teint Frais est une variété ancienne de pomme de table répandue en Bretagne, et connue depuis le 18e siècle dans les environs de Quimperlé grâce à une Demoiselle de Kerlivio qui en aurait assuré sa large diffusion dans les environs. Cette pomme était d'ailleurs également appelée "Demoiselle de Kerlivio" ou "pomme Kerlivio".
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre, au bois fort, a de nombreux rameaux, gros et étalés, et de grandes feuilles ovales profondément dentées[1].
-La floraison est a lieu majoritairement en mai[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre, au bois fort, a de nombreux rameaux, gros et étalés, et de grandes feuilles ovales profondément dentées.
+La floraison est a lieu majoritairement en mai. 
 Les fruits se récoltent en octobre sont de grande dimension et de forme irrégulière, leur peau est jaune pâle, rouge du côté exposé au soleil. La chair est blanche, fine, juteuse, sucrée et acidulée.
-De longue conservation, cette pomme peut se consommer de mi-décembre à mi-mai[3]. 
-La Teint Frais est appréciée pour la confection des tartes aux pommes[4] et pour les compotes, fines et parfumées.
+De longue conservation, cette pomme peut se consommer de mi-décembre à mi-mai. 
+La Teint Frais est appréciée pour la confection des tartes aux pommes et pour les compotes, fines et parfumées.
 </t>
         </is>
       </c>
